--- a/Seperate Graphs.xlsx
+++ b/Seperate Graphs.xlsx
@@ -8,10 +8,10 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ufv1974-my.sharepoint.com/personal/ryan_caswell_student_ufv_ca/Documents/COMP 251 - Data Structures and Algorithms/Algorithm Analysis/COMP251-AA-1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="129" documentId="8_{203FC4BC-DBAE-4567-9D50-2617C843733F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FCE92F12-0EE6-4605-8DA7-BE16BA7E622C}"/>
+  <xr:revisionPtr revIDLastSave="132" documentId="8_{203FC4BC-DBAE-4567-9D50-2617C843733F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CC58A831-0B4D-4A51-8FEE-D1601D3D4B14}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{52BF432E-F2A4-4267-A304-67347262E00B}"/>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{1D4386D2-364A-4046-8DA7-D971CDC58EAC}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{1D4386D2-364A-4046-8DA7-D971CDC58EAC}"/>
   </bookViews>
   <sheets>
     <sheet name="SinglyLinkedList" sheetId="6" r:id="rId1"/>
@@ -4035,7 +4035,9 @@
   <dimension ref="A1:U7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
-    <sheetView workbookViewId="1"/>
+    <sheetView tabSelected="1" workbookViewId="1">
+      <selection activeCell="J9" sqref="J9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4532,8 +4534,8 @@
     <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
       <selection activeCell="E76" sqref="E76"/>
     </sheetView>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="1">
-      <selection activeCell="F66" sqref="F66"/>
+    <sheetView topLeftCell="A46" workbookViewId="1">
+      <selection activeCell="H76" sqref="H76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6056,16 +6058,16 @@
         <v>14240</v>
       </c>
       <c r="F66" s="1">
-        <f>ArrayBasedList!D66</f>
+        <f>ArrayBasedList!X2</f>
         <v>0</v>
       </c>
-      <c r="G66" s="1" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H66" s="1" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
+      <c r="G66" s="1">
+        <f>ArrayBasedList!Y2</f>
+        <v>0</v>
+      </c>
+      <c r="H66" s="1">
+        <f>ArrayBasedList!Z2</f>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
@@ -6084,17 +6086,17 @@
         <f>SinglyLinkedList!Z3</f>
         <v>48605</v>
       </c>
-      <c r="F67" s="1" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G67" s="1" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H67" s="1" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
+      <c r="F67" s="1">
+        <f>ArrayBasedList!X3</f>
+        <v>0</v>
+      </c>
+      <c r="G67" s="1">
+        <f>ArrayBasedList!Y3</f>
+        <v>0</v>
+      </c>
+      <c r="H67" s="1">
+        <f>ArrayBasedList!Z3</f>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
@@ -6113,17 +6115,17 @@
         <f>SinglyLinkedList!Z4</f>
         <v>9235</v>
       </c>
-      <c r="F68" s="1" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G68" s="1" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H68" s="1" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
+      <c r="F68" s="1">
+        <f>ArrayBasedList!X4</f>
+        <v>0</v>
+      </c>
+      <c r="G68" s="1">
+        <f>ArrayBasedList!Y4</f>
+        <v>0</v>
+      </c>
+      <c r="H68" s="1">
+        <f>ArrayBasedList!Z4</f>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
@@ -6142,17 +6144,17 @@
         <f>SinglyLinkedList!Z5</f>
         <v>53140</v>
       </c>
-      <c r="F69" s="1" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G69" s="1" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H69" s="1" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
+      <c r="F69" s="1">
+        <f>ArrayBasedList!X5</f>
+        <v>0</v>
+      </c>
+      <c r="G69" s="1">
+        <f>ArrayBasedList!Y5</f>
+        <v>0</v>
+      </c>
+      <c r="H69" s="1">
+        <f>ArrayBasedList!Z5</f>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
@@ -6171,17 +6173,17 @@
         <f>SinglyLinkedList!Z6</f>
         <v>851740</v>
       </c>
-      <c r="F70" s="1" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G70" s="1" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H70" s="1" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
+      <c r="F70" s="1">
+        <f>ArrayBasedList!X6</f>
+        <v>0</v>
+      </c>
+      <c r="G70" s="1">
+        <f>ArrayBasedList!Y6</f>
+        <v>0</v>
+      </c>
+      <c r="H70" s="1">
+        <f>ArrayBasedList!Z6</f>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
@@ -6200,17 +6202,17 @@
         <f>SinglyLinkedList!Z7</f>
         <v>6429105</v>
       </c>
-      <c r="F71" s="1" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G71" s="1" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H71" s="1" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
+      <c r="F71" s="1">
+        <f>ArrayBasedList!X7</f>
+        <v>0</v>
+      </c>
+      <c r="G71" s="1">
+        <f>ArrayBasedList!Y7</f>
+        <v>0</v>
+      </c>
+      <c r="H71" s="1">
+        <f>ArrayBasedList!Z7</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
